--- a/biology/Botanique/Berbéris_à_feuilles_de_buis/Berbéris_à_feuilles_de_buis.xlsx
+++ b/biology/Botanique/Berbéris_à_feuilles_de_buis/Berbéris_à_feuilles_de_buis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berb%C3%A9ris_%C3%A0_feuilles_de_buis</t>
+          <t>Berbéris_à_feuilles_de_buis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis buxifolia
 La Berbéris à feuilles de buis (Berberis buxifolia) est une plante arbustive (2,50 m) de la famille des Berberidaceae. Elle est native du Sud de l'Argentine et du Chili. Plus précisément de la province de Neuquén à l'archipel fuégien (Terre de Feu) et également autour de Talca.
